--- a/Test/src/testData/TestData.xlsx
+++ b/Test/src/testData/TestData.xlsx
@@ -16,27 +16,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="45">
+  <si>
+    <t>Sony 80 cm (32 inches) Bravia KLV-32R302E HD Ready LED TV</t>
+  </si>
+  <si>
+    <t>₹23,490.₹23,490</t>
+  </si>
+  <si>
+    <t>Sony 59.9 cm (24 inches) Bravia KLV-24P413D HD Ready LED TV (Black)</t>
+  </si>
+  <si>
+    <t>₹14,490.₹14,490</t>
+  </si>
   <si>
     <t>Sony 80 cm (32 inches) Bravia KLV-32W512D HD Ready Smart LED TV</t>
   </si>
   <si>
+    <t>₹27,990.₹27,990</t>
+  </si>
+  <si>
+    <t>Sony 80.1 cm (32 inches) Bravia KLV-32W672E Full HD LED Smart TV (Black)</t>
+  </si>
+  <si>
+    <t>₹34,990.₹34,990</t>
+  </si>
+  <si>
+    <t>Sony 108 cm (43 inches) Bravia KD-43X7500E 4K UHD LED Smart TV (Black)</t>
+  </si>
+  <si>
+    <t>₹64,500.₹64,500</t>
+  </si>
+  <si>
+    <t>Sony 101.4 cm (40 inches) KLV-40W672E Full HD LED Smart TV</t>
+  </si>
+  <si>
+    <t>₹47,489.₹47,489</t>
+  </si>
+  <si>
+    <t>Sony 101.6 cm (40 inches) Bravia KLV-40W562D Full HD LED Smart TV (Black)</t>
+  </si>
+  <si>
+    <t>₹45,990.₹45,990</t>
+  </si>
+  <si>
+    <t>Sony 108 cm (43 inches) Bravia KD-43X7002E 4K UHD LED Smart TV</t>
+  </si>
+  <si>
+    <t>₹60,500.₹60,500</t>
+  </si>
+  <si>
+    <t>Sony 72.4 cm (29 inches) BRAVIA KLV-29P423D HD Ready LED TV</t>
+  </si>
+  <si>
+    <t>₹19,990.₹19,990</t>
+  </si>
+  <si>
+    <t>Sony 80 cm (32 inches) Bravia KLV-32R412D HD Ready LED TV</t>
+  </si>
+  <si>
+    <t>₹25,990.₹25,990</t>
+  </si>
+  <si>
+    <t>Sony 108cm (43 inches) KLV-43W772E Full HD LED Smart TV</t>
+  </si>
+  <si>
+    <t>₹52,350.₹52,350</t>
+  </si>
+  <si>
+    <t>Sony 101.6 cm (40 inches) Bravia KLV-40W562D Full HD Smart LED TV</t>
+  </si>
+  <si>
+    <t>₹49,999.₹49,999</t>
+  </si>
+  <si>
+    <t>Sony 123.2 cm (49 inches) Bravia KLV-49W672E Full HD Smart LED TV</t>
+  </si>
+  <si>
+    <t>₹61,400.₹61,400</t>
+  </si>
+  <si>
+    <t>Sony 138.8 cm (55 inches) Bravia KD-55X7002E 4K UHD LED Smart TV</t>
+  </si>
+  <si>
+    <t>₹98,400.₹98,400</t>
+  </si>
+  <si>
+    <t>Sony 80.0 cm (32 inches) KLV-W512D HD Ready LED Smart TV (Black)</t>
+  </si>
+  <si>
+    <t>  29,500</t>
+  </si>
+  <si>
+    <t>Sony 108 cm (43 inches) Bravia KDL-43W800D Full HD 3D LED Android TV</t>
+  </si>
+  <si>
+    <t>₹63,900.₹63,900</t>
+  </si>
+  <si>
+    <t>Sony 123.2 cm (49 inches) BRAVIA KLV-49W772E Full HD Smart LED TV</t>
+  </si>
+  <si>
+    <t>₹69,200.₹69,200</t>
+  </si>
+  <si>
+    <t>Sony 101.6 cm (40 inches) Bravia KLV-40R352E Full HD LED TV</t>
+  </si>
+  <si>
+    <t>₹41,990.₹41,990</t>
+  </si>
+  <si>
+    <t>Sony 138.8 cm (55 inches) Bravia KD-55X8200E 4K UHD LED Smart TV</t>
+  </si>
+  <si>
+    <t>₹1,12,970.₹1,12,970</t>
+  </si>
+  <si>
+    <t>Sony 80 cm (32 inches) Bravia KLV-32W622E HD Ready LED Smart TV (Black)</t>
+  </si>
+  <si>
+    <t>₹30,990.₹30,990</t>
+  </si>
+  <si>
+    <t>₹59,389.₹59,389</t>
+  </si>
+  <si>
+    <t>₹52,000.₹52,000</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Sony 59.9 cm (24 inches) Bravia KLV-24P413D HD Ready LED TV (Black)</t>
-  </si>
-  <si>
-    <t>Sony 80 cm (32 inches) Bravia KLV-32R302E HD Ready LED TV</t>
-  </si>
-  <si>
-    <t>Sony 80.1 cm (32 inches) Bravia KLV-32W672E Full HD LED Smart TV (Black)</t>
-  </si>
-  <si>
-    <t>Sony 108cm (43 inches) KLV-43W772E Full HD LED Smart TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t>  29,500.00</t>
+  </si>
+  <si>
+    <t>₹69,000.₹69,000</t>
   </si>
 </sst>
 </file>
@@ -369,9 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -386,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -394,31 +510,151 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Test/src/testData/TestData.xlsx
+++ b/Test/src/testData/TestData.xlsx
@@ -2,162 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="4035" windowWidth="11340" xWindow="0" yWindow="2520"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10575" windowHeight="3570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="45">
-  <si>
-    <t>Sony 80 cm (32 inches) Bravia KLV-32R302E HD Ready LED TV</t>
-  </si>
-  <si>
-    <t>₹23,490.₹23,490</t>
-  </si>
-  <si>
-    <t>Sony 59.9 cm (24 inches) Bravia KLV-24P413D HD Ready LED TV (Black)</t>
-  </si>
-  <si>
-    <t>₹14,490.₹14,490</t>
-  </si>
-  <si>
-    <t>Sony 80 cm (32 inches) Bravia KLV-32W512D HD Ready Smart LED TV</t>
-  </si>
-  <si>
-    <t>₹27,990.₹27,990</t>
-  </si>
-  <si>
-    <t>Sony 80.1 cm (32 inches) Bravia KLV-32W672E Full HD LED Smart TV (Black)</t>
-  </si>
-  <si>
-    <t>₹34,990.₹34,990</t>
-  </si>
-  <si>
-    <t>Sony 108 cm (43 inches) Bravia KD-43X7500E 4K UHD LED Smart TV (Black)</t>
-  </si>
-  <si>
-    <t>₹64,500.₹64,500</t>
-  </si>
-  <si>
-    <t>Sony 101.4 cm (40 inches) KLV-40W672E Full HD LED Smart TV</t>
-  </si>
-  <si>
-    <t>₹47,489.₹47,489</t>
-  </si>
-  <si>
-    <t>Sony 101.6 cm (40 inches) Bravia KLV-40W562D Full HD LED Smart TV (Black)</t>
-  </si>
-  <si>
-    <t>₹45,990.₹45,990</t>
-  </si>
-  <si>
-    <t>Sony 108 cm (43 inches) Bravia KD-43X7002E 4K UHD LED Smart TV</t>
-  </si>
-  <si>
-    <t>₹60,500.₹60,500</t>
-  </si>
-  <si>
-    <t>Sony 72.4 cm (29 inches) BRAVIA KLV-29P423D HD Ready LED TV</t>
-  </si>
-  <si>
-    <t>₹19,990.₹19,990</t>
-  </si>
-  <si>
-    <t>Sony 80 cm (32 inches) Bravia KLV-32R412D HD Ready LED TV</t>
-  </si>
-  <si>
-    <t>₹25,990.₹25,990</t>
-  </si>
-  <si>
-    <t>Sony 108cm (43 inches) KLV-43W772E Full HD LED Smart TV</t>
-  </si>
-  <si>
-    <t>₹52,350.₹52,350</t>
-  </si>
-  <si>
-    <t>Sony 101.6 cm (40 inches) Bravia KLV-40W562D Full HD Smart LED TV</t>
-  </si>
-  <si>
-    <t>₹49,999.₹49,999</t>
-  </si>
-  <si>
-    <t>Sony 123.2 cm (49 inches) Bravia KLV-49W672E Full HD Smart LED TV</t>
-  </si>
-  <si>
-    <t>₹61,400.₹61,400</t>
-  </si>
-  <si>
-    <t>Sony 138.8 cm (55 inches) Bravia KD-55X7002E 4K UHD LED Smart TV</t>
-  </si>
-  <si>
-    <t>₹98,400.₹98,400</t>
-  </si>
-  <si>
-    <t>Sony 80.0 cm (32 inches) KLV-W512D HD Ready LED Smart TV (Black)</t>
-  </si>
-  <si>
-    <t>  29,500</t>
-  </si>
-  <si>
-    <t>Sony 108 cm (43 inches) Bravia KDL-43W800D Full HD 3D LED Android TV</t>
-  </si>
-  <si>
-    <t>₹63,900.₹63,900</t>
-  </si>
-  <si>
-    <t>Sony 123.2 cm (49 inches) BRAVIA KLV-49W772E Full HD Smart LED TV</t>
-  </si>
-  <si>
-    <t>₹69,200.₹69,200</t>
-  </si>
-  <si>
-    <t>Sony 101.6 cm (40 inches) Bravia KLV-40R352E Full HD LED TV</t>
-  </si>
-  <si>
-    <t>₹41,990.₹41,990</t>
-  </si>
-  <si>
-    <t>Sony 138.8 cm (55 inches) Bravia KD-55X8200E 4K UHD LED Smart TV</t>
-  </si>
-  <si>
-    <t>₹1,12,970.₹1,12,970</t>
-  </si>
-  <si>
-    <t>Sony 80 cm (32 inches) Bravia KLV-32W622E HD Ready LED Smart TV (Black)</t>
-  </si>
-  <si>
-    <t>₹30,990.₹30,990</t>
-  </si>
-  <si>
-    <t>₹59,389.₹59,389</t>
-  </si>
-  <si>
-    <t>₹52,000.₹52,000</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>  29,500.00</t>
-  </si>
-  <si>
-    <t>₹69,000.₹69,000</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -185,16 +49,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -203,10 +67,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -362,7 +226,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -371,13 +235,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -387,7 +251,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -396,7 +260,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -405,7 +269,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -415,12 +279,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -451,7 +315,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -470,7 +334,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -483,182 +347,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -671,7 +374,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,6 +386,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>